--- a/target/test-classes/testData/Driver_Backup_nontext.xlsx
+++ b/target/test-classes/testData/Driver_Backup_nontext.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6015" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestData_UAT_old" sheetId="15" r:id="rId1"/>
@@ -1407,22 +1407,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,6 +1450,21 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1857,16 +1857,16 @@
       <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
@@ -2666,16 +2666,16 @@
       <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="106"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="123"/>
     </row>
     <row r="2" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
@@ -4570,7 +4570,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4784,79 +4784,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="124"/>
-    <col min="7" max="7" width="10.7109375" style="124" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.140625" style="124"/>
-    <col min="14" max="14" width="16.42578125" style="124" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="124"/>
+    <col min="1" max="6" width="9.140625" style="119"/>
+    <col min="7" max="7" width="10.7109375" style="119" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="119"/>
+    <col min="14" max="14" width="16.42578125" style="119" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="109" customFormat="1" ht="90" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:23" s="104" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-    </row>
-    <row r="2" spans="1:23" s="113" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110">
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+    </row>
+    <row r="2" spans="1:23" s="108" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="105">
         <v>1</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="106" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-    </row>
-    <row r="3" spans="1:23" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+    </row>
+    <row r="3" spans="1:23" s="108" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="111" t="s">
         <v>209</v>
       </c>
       <c r="E3" s="96" t="s">
@@ -4869,44 +4869,44 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
       <c r="L3" s="96"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="96"/>
       <c r="P3" s="96"/>
       <c r="Q3" s="96"/>
       <c r="R3" s="96"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-    </row>
-    <row r="4" spans="1:23" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+    </row>
+    <row r="4" spans="1:23" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="114"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
       <c r="K4" s="96"/>
-      <c r="L4" s="122"/>
+      <c r="L4" s="117"/>
       <c r="M4" s="96"/>
       <c r="N4" s="96"/>
       <c r="O4" s="96"/>
       <c r="P4" s="96"/>
       <c r="Q4" s="96"/>
     </row>
-    <row r="5" spans="1:23" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="116" t="s">
+    <row r="5" spans="1:23" s="108" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="111" t="s">
         <v>212</v>
       </c>
       <c r="E5" s="96" t="s">
@@ -4919,44 +4919,44 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
       <c r="L5" s="96"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
       <c r="O5" s="96"/>
       <c r="P5" s="96"/>
       <c r="Q5" s="96"/>
       <c r="R5" s="96"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-    </row>
-    <row r="6" spans="1:23" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+    </row>
+    <row r="6" spans="1:23" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="114"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="96"/>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
       <c r="K6" s="96"/>
-      <c r="L6" s="122"/>
+      <c r="L6" s="117"/>
       <c r="M6" s="96"/>
       <c r="N6" s="96"/>
       <c r="O6" s="96"/>
       <c r="P6" s="96"/>
       <c r="Q6" s="96"/>
     </row>
-    <row r="7" spans="1:23" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="116" t="s">
+    <row r="7" spans="1:23" s="108" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="111" t="s">
         <v>209</v>
       </c>
       <c r="E7" s="96" t="s">
@@ -4969,81 +4969,81 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
       <c r="L7" s="96"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="96"/>
       <c r="P7" s="96"/>
       <c r="Q7" s="96"/>
       <c r="R7" s="96"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-    </row>
-    <row r="8" spans="1:23" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="116"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+    </row>
+    <row r="8" spans="1:23" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="114"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="96"/>
       <c r="E8" s="96"/>
       <c r="F8" s="96"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
       <c r="K8" s="96"/>
-      <c r="L8" s="122"/>
+      <c r="L8" s="117"/>
       <c r="M8" s="96"/>
       <c r="N8" s="96"/>
       <c r="O8" s="96"/>
       <c r="P8" s="96"/>
       <c r="Q8" s="96"/>
     </row>
-    <row r="9" spans="1:23" s="113" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110">
+    <row r="9" spans="1:23" s="108" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="105">
         <v>2</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="106" t="s">
         <v>222</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-    </row>
-    <row r="10" spans="1:23" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116" t="s">
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+    </row>
+    <row r="10" spans="1:23" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="111" t="s">
         <v>216</v>
       </c>
       <c r="E10" s="96" t="s">
@@ -5058,44 +5058,44 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
       <c r="L10" s="96"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
       <c r="O10" s="96"/>
       <c r="P10" s="96"/>
       <c r="Q10" s="96"/>
       <c r="R10" s="96"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-    </row>
-    <row r="11" spans="1:23" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+    </row>
+    <row r="11" spans="1:23" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="114"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="96"/>
       <c r="E11" s="96"/>
       <c r="F11" s="96"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
       <c r="K11" s="96"/>
-      <c r="L11" s="122"/>
+      <c r="L11" s="117"/>
       <c r="M11" s="96"/>
       <c r="N11" s="96"/>
       <c r="O11" s="96"/>
       <c r="P11" s="96"/>
       <c r="Q11" s="96"/>
     </row>
-    <row r="12" spans="1:23" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116" t="s">
+    <row r="12" spans="1:23" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="111" t="s">
         <v>217</v>
       </c>
       <c r="E12" s="96" t="s">
@@ -5110,44 +5110,44 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
       <c r="L12" s="96"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
       <c r="O12" s="96"/>
       <c r="P12" s="96"/>
       <c r="Q12" s="96"/>
       <c r="R12" s="96"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-    </row>
-    <row r="13" spans="1:23" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+    </row>
+    <row r="13" spans="1:23" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="114"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
       <c r="F13" s="96"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
       <c r="K13" s="96"/>
-      <c r="L13" s="122"/>
+      <c r="L13" s="117"/>
       <c r="M13" s="96"/>
       <c r="N13" s="96"/>
       <c r="O13" s="96"/>
       <c r="P13" s="96"/>
       <c r="Q13" s="96"/>
     </row>
-    <row r="14" spans="1:23" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116" t="s">
+    <row r="14" spans="1:23" s="108" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="111" t="s">
         <v>218</v>
       </c>
       <c r="E14" s="96" t="s">
@@ -5162,99 +5162,99 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
       <c r="L14" s="96"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
       <c r="O14" s="96"/>
       <c r="P14" s="96"/>
       <c r="Q14" s="96"/>
       <c r="R14" s="96"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="112"/>
-    </row>
-    <row r="15" spans="1:23" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+    </row>
+    <row r="15" spans="1:23" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="114"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="96"/>
       <c r="E15" s="96"/>
       <c r="F15" s="96"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
       <c r="K15" s="96"/>
-      <c r="L15" s="122"/>
+      <c r="L15" s="117"/>
       <c r="M15" s="96"/>
       <c r="N15" s="96"/>
       <c r="O15" s="96"/>
       <c r="P15" s="96"/>
       <c r="Q15" s="96"/>
     </row>
-    <row r="16" spans="1:23" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A16" s="110">
+    <row r="16" spans="1:23" s="108" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A16" s="105">
         <v>3</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="106" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="106" t="s">
         <v>226</v>
       </c>
-      <c r="G16" s="111" t="s">
+      <c r="G16" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="H16" s="111" t="s">
+      <c r="H16" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="I16" s="111" t="s">
+      <c r="I16" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="J16" s="111" t="s">
+      <c r="J16" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="K16" s="111" t="s">
+      <c r="K16" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="L16" s="111" t="s">
+      <c r="L16" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="M16" s="111" t="s">
+      <c r="M16" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="111" t="s">
+      <c r="N16" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="O16" s="111" t="s">
+      <c r="O16" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="112"/>
-      <c r="W16" s="112"/>
-    </row>
-    <row r="17" spans="1:23" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116" t="s">
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+    </row>
+    <row r="17" spans="1:23" s="108" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="111" t="s">
         <v>209</v>
       </c>
       <c r="E17" s="96" t="s">
@@ -5281,10 +5281,10 @@
       <c r="L17" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="M17" s="117">
+      <c r="M17" s="112">
         <v>5</v>
       </c>
-      <c r="N17" s="123" t="s">
+      <c r="N17" s="118" t="s">
         <v>238</v>
       </c>
       <c r="O17" s="96" t="s">
@@ -5293,25 +5293,25 @@
       <c r="P17" s="96"/>
       <c r="Q17" s="96"/>
       <c r="R17" s="96"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="112"/>
-      <c r="W17" s="112"/>
-    </row>
-    <row r="18" spans="1:23" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+    </row>
+    <row r="18" spans="1:23" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="114"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="96"/>
       <c r="E18" s="96"/>
       <c r="F18" s="96"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
       <c r="K18" s="96"/>
-      <c r="L18" s="122"/>
+      <c r="L18" s="117"/>
       <c r="M18" s="96"/>
       <c r="N18" s="96"/>
       <c r="O18" s="96"/>
